--- a/data/trans_dic/P6901-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P6901-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,39%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,08%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,26%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,16%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,54%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,85%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,14%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,55%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>58,19; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>44,93; 86,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>26,14; 88,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>23,34; 81,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>13,99; 85,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>26,34; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>15,86; 87,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>56,94; 95,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 8,64</t>
+          <t>51,33; 87,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>49,44; 85,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>35,4; 82,06</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>42,44; 81,64</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,14%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>92,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,75%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,25%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,8%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,03%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,64%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>63,12; 84,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>63,81; 86,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>58,62; 86,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>70,14; 91,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>73,36; 96,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>73,98; 100,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>70,01; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,59</t>
+          <t>67,88; 88,64</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>69,47; 86,02</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>72,8; 90,0</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>68,12; 88,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>72,86; 88,54</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,88%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,77%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,4%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,59%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,5%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,52%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>63,15; 78,58</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>65,93; 83,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>63,5; 83,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,71</t>
+          <t>62,52; 80,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>64,87; 86,67</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>67,0; 89,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>79,23; 97,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>71,92; 85,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>65,1; 78,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,33</t>
+          <t>69,99; 84,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,39</t>
+          <t>72,83; 86,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>69,68; 80,55</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>80,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,65%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>85,91%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,04%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,99%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,03%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,9</t>
+          <t>67,42; 84,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>61,45; 83,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,84</t>
+          <t>71,97; 86,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>60,66; 85,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>72,5; 93,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>59,85; 84,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>74,38; 93,21</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,15</t>
+          <t>64,81; 87,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>72,76; 86,06</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>64,1; 80,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,14</t>
+          <t>76,23; 87,72</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,3</t>
+          <t>67,62; 83,81</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,92%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,89%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,7%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,68%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,57%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,09%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,94%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,63%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,38</t>
+          <t>67,8; 82,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,46</t>
+          <t>63,19; 82,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>56,75; 77,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,88</t>
+          <t>60,11; 79,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>63,65; 82,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>61,32; 84,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,09</t>
+          <t>67,21; 87,97</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,27</t>
+          <t>54,82; 79,5</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>68,71; 80,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>66,41; 81,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,31</t>
+          <t>64,99; 80,35</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>62,92; 77,01</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,95%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,26%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,99%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,76%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,5%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,67%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>70,82; 79,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>69,03; 78,99</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>69,24; 79,25</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>67,72; 77,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>72,29; 83,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>70,59; 83,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>79,3; 89,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>69,93; 80,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>72,44; 79,05</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>71,93; 79,27</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>75,14; 82,04</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>71,17; 78,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6901-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>86,39%</t>
+          <t>77,47%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>67,08%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64,46%</t>
+          <t>72,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>50,26%</t>
+          <t>77,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>42,65%</t>
+          <t>80,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>87,94%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>59,09%</t>
+          <t>84,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>82,54%</t>
+          <t>79,98%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>73,86%</t>
+          <t>78,23%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>67,85%</t>
+          <t>78,16%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>62,14%</t>
+          <t>77,03%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>64,55%</t>
+          <t>78,32%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>58,19; 100,0</t>
+          <t>66,18; 86,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>44,93; 86,49</t>
+          <t>63,04; 83,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>26,14; 88,83</t>
+          <t>59,39; 83,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>23,34; 81,41</t>
+          <t>65,12; 86,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,99; 85,41</t>
+          <t>64,09; 91,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,34; 100,0</t>
+          <t>71,36; 96,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 87,28</t>
+          <t>65,53; 93,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,94; 95,58</t>
+          <t>70,33; 87,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>51,33; 87,8</t>
+          <t>69,93; 85,2</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>49,44; 85,93</t>
+          <t>70,48; 86,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>35,4; 82,06</t>
+          <t>66,19; 85,08</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,44; 81,64</t>
+          <t>69,66; 84,2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>75,37%</t>
+          <t>71,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>76,36%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>74,2%</t>
+          <t>74,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>83,14%</t>
+          <t>71,78%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>88,75%</t>
+          <t>76,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>91,47%</t>
+          <t>90,91%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>79,75%</t>
+          <t>79,46%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>79,25%</t>
+          <t>72,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>81,8%</t>
+          <t>77,7%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>80,03%</t>
+          <t>80,5%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>81,64%</t>
+          <t>75,38%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,12; 84,54</t>
+          <t>63,15; 78,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,81; 86,51</t>
+          <t>65,93; 83,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>58,62; 86,65</t>
+          <t>63,5; 83,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>70,14; 91,85</t>
+          <t>62,43; 80,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>73,36; 96,59</t>
+          <t>64,87; 86,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>73,98; 100,0</t>
+          <t>67,0; 89,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>70,01; 100,0</t>
+          <t>79,23; 97,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>67,88; 88,64</t>
+          <t>72,1; 85,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>69,47; 86,02</t>
+          <t>65,1; 78,45</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>72,8; 90,0</t>
+          <t>69,99; 84,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>68,12; 88,93</t>
+          <t>72,83; 86,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>72,86; 88,54</t>
+          <t>69,63; 80,68</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>71,08%</t>
+          <t>77,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>76,16%</t>
+          <t>73,1%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>74,54%</t>
+          <t>80,31%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>74,29%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>76,77%</t>
+          <t>85,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>80,04%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>85,91%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>79,4%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>72,59%</t>
+          <t>79,99%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>77,7%</t>
+          <t>73,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>80,5%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>75,52%</t>
+          <t>79,48%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>63,15; 78,58</t>
+          <t>67,42; 84,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,93; 83,97</t>
+          <t>61,45; 83,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>63,5; 83,61</t>
+          <t>71,97; 86,71</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>62,52; 80,64</t>
+          <t>60,2; 84,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>64,87; 86,67</t>
+          <t>72,5; 93,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,0; 89,41</t>
+          <t>59,85; 84,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>79,23; 97,03</t>
+          <t>74,38; 93,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,92; 85,85</t>
+          <t>68,05; 94,5</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,1; 78,45</t>
+          <t>72,76; 86,06</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69,99; 84,32</t>
+          <t>64,1; 80,6</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,83; 86,46</t>
+          <t>76,23; 87,72</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>69,68; 80,55</t>
+          <t>69,77; 92,07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>77,59%</t>
+          <t>75,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>73,1%</t>
+          <t>73,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>80,31%</t>
+          <t>68,35%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>74,65%</t>
+          <t>69,94%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>85,66%</t>
+          <t>73,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>74,27%</t>
+          <t>73,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>85,91%</t>
+          <t>79,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>77,04%</t>
+          <t>71,4%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>79,99%</t>
+          <t>75,09%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>73,79%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>82,39%</t>
+          <t>72,94%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>76,03%</t>
+          <t>70,68%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,42; 84,8</t>
+          <t>67,8; 82,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>61,45; 83,01</t>
+          <t>63,19; 82,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,97; 86,71</t>
+          <t>56,75; 77,64</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,66; 85,11</t>
+          <t>59,35; 79,14</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>72,5; 93,9</t>
+          <t>63,65; 82,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,85; 84,86</t>
+          <t>61,32; 84,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>74,38; 93,21</t>
+          <t>67,21; 87,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>64,81; 87,07</t>
+          <t>58,76; 80,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,76; 86,06</t>
+          <t>68,71; 80,4</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>64,1; 80,6</t>
+          <t>66,41; 81,12</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>76,23; 87,72</t>
+          <t>64,99; 80,35</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>67,62; 83,81</t>
+          <t>63,74; 77,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>75,07%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>73,89%</t>
+          <t>74,3%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>68,35%</t>
+          <t>74,51%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>70,7%</t>
+          <t>72,75%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>73,81%</t>
+          <t>77,95%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>73,68%</t>
+          <t>78,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>79,07%</t>
+          <t>84,96%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>70,57%</t>
+          <t>77,99%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>75,09%</t>
+          <t>75,99%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>73,79%</t>
+          <t>75,76%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>72,94%</t>
+          <t>78,5%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>70,63%</t>
+          <t>75,42%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,8; 82,15</t>
+          <t>70,82; 79,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,19; 82,46</t>
+          <t>69,03; 78,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,75; 77,64</t>
+          <t>69,24; 79,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60,11; 79,88</t>
+          <t>67,25; 77,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>63,65; 82,4</t>
+          <t>72,29; 83,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>61,32; 84,47</t>
+          <t>70,59; 83,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>67,21; 87,97</t>
+          <t>79,3; 89,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>54,82; 79,5</t>
+          <t>72,27; 83,92</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>68,71; 80,4</t>
+          <t>72,44; 79,05</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>66,41; 81,12</t>
+          <t>71,93; 79,27</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>64,99; 80,35</t>
+          <t>75,14; 82,04</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>62,92; 77,01</t>
+          <t>71,73; 79,68</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>75,07%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>74,3%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>74,51%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>73,04%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>77,95%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>78,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>84,96%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>76,26%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>75,99%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>75,76%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>78,5%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>74,67%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>70,82; 79,11</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>69,03; 78,99</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>69,24; 79,25</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>67,72; 77,96</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>72,29; 83,31</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>70,59; 83,34</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>79,3; 89,87</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>69,93; 80,55</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>72,44; 79,05</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>71,93; 79,27</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>75,14; 82,04</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>71,17; 78,03</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/P6901-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>66,18; 86,12</t>
+          <t>66,39; 85,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>63,04; 83,05</t>
+          <t>62,91; 82,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,39; 83,82</t>
+          <t>59,65; 84,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>65,12; 86,06</t>
+          <t>65,2; 86,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>64,09; 91,69</t>
+          <t>63,95; 91,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>71,36; 96,95</t>
+          <t>73,25; 97,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>65,53; 93,99</t>
+          <t>68,07; 94,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>70,33; 87,98</t>
+          <t>69,2; 88,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>69,93; 85,2</t>
+          <t>70,23; 85,36</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>70,48; 86,09</t>
+          <t>69,1; 84,91</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66,19; 85,08</t>
+          <t>66,7; 85,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>69,66; 84,2</t>
+          <t>70,17; 85,18</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>63,15; 78,58</t>
+          <t>63,81; 77,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>65,93; 83,97</t>
+          <t>65,99; 84,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,5; 83,61</t>
+          <t>65,46; 83,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>62,43; 80,76</t>
+          <t>62,4; 80,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>64,87; 86,67</t>
+          <t>64,71; 86,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,0; 89,41</t>
+          <t>67,49; 89,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>79,23; 97,03</t>
+          <t>79,21; 97,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,1; 85,9</t>
+          <t>72,11; 85,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>65,1; 78,45</t>
+          <t>66,05; 78,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>69,99; 84,32</t>
+          <t>70,2; 83,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,83; 86,46</t>
+          <t>72,98; 86,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>69,63; 80,68</t>
+          <t>68,63; 79,98</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,42; 84,8</t>
+          <t>66,95; 84,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>61,45; 83,01</t>
+          <t>61,58; 82,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>71,97; 86,71</t>
+          <t>72,0; 86,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>60,2; 84,62</t>
+          <t>61,41; 85,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>72,5; 93,9</t>
+          <t>74,42; 94,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>59,85; 84,86</t>
+          <t>61,29; 85,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>74,38; 93,21</t>
+          <t>75,42; 92,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>68,05; 94,5</t>
+          <t>68,84; 94,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>72,76; 86,06</t>
+          <t>73,02; 85,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>64,1; 80,6</t>
+          <t>64,47; 80,47</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>76,23; 87,72</t>
+          <t>75,39; 87,56</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>69,77; 92,07</t>
+          <t>69,44; 90,41</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,8; 82,15</t>
+          <t>68,71; 82,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,19; 82,46</t>
+          <t>63,91; 83,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,75; 77,64</t>
+          <t>57,48; 78,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>59,35; 79,14</t>
+          <t>59,09; 78,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>63,65; 82,4</t>
+          <t>63,01; 82,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>61,32; 84,47</t>
+          <t>60,63; 84,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>67,21; 87,97</t>
+          <t>67,49; 87,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,76; 80,08</t>
+          <t>59,11; 80,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>68,71; 80,4</t>
+          <t>69,03; 80,31</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66,41; 81,12</t>
+          <t>65,58; 80,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>64,99; 80,35</t>
+          <t>64,41; 79,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>63,74; 77,18</t>
+          <t>62,91; 76,46</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>70,82; 79,11</t>
+          <t>70,83; 78,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,03; 78,99</t>
+          <t>69,29; 79,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>69,24; 79,25</t>
+          <t>69,64; 79,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>67,25; 77,6</t>
+          <t>67,51; 77,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>72,29; 83,31</t>
+          <t>71,88; 83,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>70,59; 83,34</t>
+          <t>71,79; 83,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>79,3; 89,87</t>
+          <t>79,06; 88,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>72,27; 83,92</t>
+          <t>72,4; 84,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>72,44; 79,05</t>
+          <t>72,42; 79,35</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>71,93; 79,27</t>
+          <t>71,98; 79,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>75,14; 82,04</t>
+          <t>74,75; 82,01</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>71,73; 79,68</t>
+          <t>71,84; 79,81</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores en la espalda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>61454</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>57235</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>39783</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>54864</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>25823</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>31002</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25379</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>43734</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>87277</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>88237</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>65161</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>98599</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>52670; 68133</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>48844; 64301</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>32613; 46201</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>46435; 61589</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>20618; 29530</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>25823; 34213</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20363; 28314</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>37838; 48490</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>78355; 95235</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>78017; 95860</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>56420; 72431</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>88337; 107239</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>103768</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>70791</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>72296</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>80382</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>40534</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>49089</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50500</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>78454</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>144301</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>119880</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>122795</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>158835</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>93151; 113839</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>61341; 78311</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>63483; 81111</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>69880; 90279</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>34163; 45871</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>41390; 54903</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>44003; 54114</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>71191; 84656</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>131284; 156270</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>108300; 129264</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>111323; 132181</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>144611; 168520</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>85306</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>58159</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>88290</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>41066</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39862</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>39345</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>55623</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>79887</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>125167</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>97505</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>143914</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>120952</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>73605; 92749</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>48994; 65693</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>79156; 95490</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33946; 47136</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>34630; 43822</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>32469; 45111</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>48835; 59926</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>66711; 91291</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>114255; 133889</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>85443; 106658</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>131697; 152946</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>105678; 137593</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>104051</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>57190</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>60427</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>70665</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>65357</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>47226</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>52253</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>74186</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>169408</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>104417</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>112680</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>144851</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>94164; 112869</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>49468; 64433</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>50815; 69405</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>59700; 79750</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>55792; 73217</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>38863; 53846</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>44598; 58064</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>61416; 83169</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>155742; 181171</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>92795; 113896</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>99506; 122819</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>128926; 156689</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>354578</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>243376</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>260795</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>246977</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>171575</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>166663</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>183756</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>276261</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>526154</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>410038</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>444551</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>523238</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>334550; 372165</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>226963; 260196</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>243733; 277615</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>229201; 264426</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>158216; 182869</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>153383; 178952</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>171011; 192299</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>256445; 297888</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>501482; 549421</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>389548; 431185</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>423295; 464402</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>498342; 553674</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>